--- a/ballLab/Book1.xlsx
+++ b/ballLab/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doughezj\Documents\ME435\ballLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doughezj\Documents\GitHub\RoboticsEngineering\ballLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>RED</t>
   </si>
@@ -111,6 +111,36 @@
   </si>
   <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>Slot 1</t>
+  </si>
+  <si>
+    <t>Slot 2</t>
+  </si>
+  <si>
+    <t>Slot 3</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -126,15 +156,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,15 +178,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:D29" si="3">B21-B$24</f>
+        <f t="shared" ref="B27:D28" si="3">B21-B$24</f>
         <v>-109.66666666666669</v>
       </c>
       <c r="C27">
@@ -924,6 +978,385 @@
       </c>
       <c r="C45" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="2">
+        <v>560</v>
+      </c>
+      <c r="C55" s="2">
+        <v>918</v>
+      </c>
+      <c r="D55" s="2">
+        <v>995</v>
+      </c>
+      <c r="E55" s="2">
+        <v>523</v>
+      </c>
+      <c r="F55" s="4">
+        <f>SQRT((B55*B55)+(C55*C55)+(D55*D55)+(E55*E55))</f>
+        <v>1555.5957058310491</v>
+      </c>
+      <c r="G55" s="2">
+        <v>737</v>
+      </c>
+      <c r="H55" s="2">
+        <v>748</v>
+      </c>
+      <c r="I55" s="2">
+        <v>891</v>
+      </c>
+      <c r="J55" s="2">
+        <v>549</v>
+      </c>
+      <c r="K55" s="4">
+        <f>SQRT((G55*G55)+(H55*H55)+(I55*I55)+(J55*J55))</f>
+        <v>1482.5501677852253</v>
+      </c>
+      <c r="L55" s="2">
+        <v>625</v>
+      </c>
+      <c r="M55" s="2">
+        <v>936</v>
+      </c>
+      <c r="N55" s="2">
+        <v>886</v>
+      </c>
+      <c r="O55" s="2">
+        <v>550</v>
+      </c>
+      <c r="P55" s="4">
+        <f>SQRT((L55*L55)+(M55*M55)+(N55*N55)+(O55*O55))</f>
+        <v>1534.3457889276458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2">
+        <v>904</v>
+      </c>
+      <c r="C56" s="2">
+        <v>691</v>
+      </c>
+      <c r="D56" s="2">
+        <v>975</v>
+      </c>
+      <c r="E56" s="2">
+        <v>618</v>
+      </c>
+      <c r="F56" s="4">
+        <f>SQRT((B56*B56)+(C56*C56)+(D56*D56)+(E56*E56))</f>
+        <v>1620.8781570494434</v>
+      </c>
+      <c r="G56" s="2">
+        <v>947</v>
+      </c>
+      <c r="H56" s="2">
+        <v>768</v>
+      </c>
+      <c r="I56" s="2">
+        <v>951</v>
+      </c>
+      <c r="J56" s="2">
+        <v>701</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" ref="K56:K60" si="5">SQRT((G56*G56)+(H56*H56)+(I56*I56)+(J56*J56))</f>
+        <v>1697.7735420249662</v>
+      </c>
+      <c r="L56" s="2">
+        <v>855</v>
+      </c>
+      <c r="M56" s="2">
+        <v>810</v>
+      </c>
+      <c r="N56" s="2">
+        <v>756</v>
+      </c>
+      <c r="O56" s="2">
+        <v>587</v>
+      </c>
+      <c r="P56" s="4">
+        <f t="shared" ref="P56:P60" si="6">SQRT((L56*L56)+(M56*M56)+(N56*N56)+(O56*O56))</f>
+        <v>1517.6396146648256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="2">
+        <v>929</v>
+      </c>
+      <c r="C57" s="2">
+        <v>775</v>
+      </c>
+      <c r="D57" s="2">
+        <v>920</v>
+      </c>
+      <c r="E57" s="2">
+        <v>669</v>
+      </c>
+      <c r="F57" s="4">
+        <f>SQRT((B57*B57)+(C57*C57)+(D57*D57)+(E57*E57))</f>
+        <v>1660.6104299323185</v>
+      </c>
+      <c r="G57" s="2">
+        <v>964</v>
+      </c>
+      <c r="H57" s="2">
+        <v>828</v>
+      </c>
+      <c r="I57" s="2">
+        <v>908</v>
+      </c>
+      <c r="J57" s="2">
+        <v>735</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="5"/>
+        <v>1726.1428098509116</v>
+      </c>
+      <c r="L57" s="2">
+        <v>912</v>
+      </c>
+      <c r="M57" s="2">
+        <v>876</v>
+      </c>
+      <c r="N57" s="2">
+        <v>653</v>
+      </c>
+      <c r="O57" s="2">
+        <v>569</v>
+      </c>
+      <c r="P57" s="4">
+        <f t="shared" si="6"/>
+        <v>1532.7393777155985</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="2">
+        <v>317</v>
+      </c>
+      <c r="C58" s="2">
+        <v>357</v>
+      </c>
+      <c r="D58" s="2">
+        <v>730</v>
+      </c>
+      <c r="E58" s="2">
+        <v>204</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" ref="F58:F60" si="7">SQRT((B58*B58)+(C58*C58)+(D58*D58)+(E58*E58))</f>
+        <v>895.79796829419081</v>
+      </c>
+      <c r="G58" s="2">
+        <v>580</v>
+      </c>
+      <c r="H58" s="2">
+        <v>508</v>
+      </c>
+      <c r="I58" s="2">
+        <v>746</v>
+      </c>
+      <c r="J58" s="2">
+        <v>358</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="5"/>
+        <v>1130.9924845019971</v>
+      </c>
+      <c r="L58" s="2">
+        <v>390</v>
+      </c>
+      <c r="M58" s="2">
+        <v>545</v>
+      </c>
+      <c r="N58" s="2">
+        <v>396</v>
+      </c>
+      <c r="O58" s="2">
+        <v>227</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="6"/>
+        <v>810.84523800784575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="2">
+        <v>942</v>
+      </c>
+      <c r="C59" s="2">
+        <v>911</v>
+      </c>
+      <c r="D59" s="2">
+        <v>988</v>
+      </c>
+      <c r="E59" s="2">
+        <v>815</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="7"/>
+        <v>1832.3902422791932</v>
+      </c>
+      <c r="G59" s="2">
+        <v>915</v>
+      </c>
+      <c r="H59" s="2">
+        <v>835</v>
+      </c>
+      <c r="I59" s="2">
+        <v>941</v>
+      </c>
+      <c r="J59" s="2">
+        <v>729</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="5"/>
+        <v>1717.9557619449927</v>
+      </c>
+      <c r="L59" s="2">
+        <v>966</v>
+      </c>
+      <c r="M59" s="2">
+        <v>970</v>
+      </c>
+      <c r="N59" s="2">
+        <v>916</v>
+      </c>
+      <c r="O59" s="2">
+        <v>835</v>
+      </c>
+      <c r="P59" s="4">
+        <f t="shared" si="6"/>
+        <v>1846.7097768734534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>325</v>
+      </c>
+      <c r="C60">
+        <v>425</v>
+      </c>
+      <c r="D60">
+        <v>950</v>
+      </c>
+      <c r="E60">
+        <v>235</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="7"/>
+        <v>1115.3362721618983</v>
+      </c>
+      <c r="G60">
+        <v>601</v>
+      </c>
+      <c r="H60">
+        <v>577</v>
+      </c>
+      <c r="I60">
+        <v>937</v>
+      </c>
+      <c r="J60">
+        <v>421</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="5"/>
+        <v>1322.6261754554837</v>
+      </c>
+      <c r="L60">
+        <v>404</v>
+      </c>
+      <c r="M60">
+        <v>621</v>
+      </c>
+      <c r="N60">
+        <v>754</v>
+      </c>
+      <c r="O60">
+        <v>312</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="6"/>
+        <v>1102.142005369544</v>
       </c>
     </row>
   </sheetData>
